--- a/samplework/projection_template_5Jul (1).xlsx
+++ b/samplework/projection_template_5Jul (1).xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>tcuts.product_RM_SF_ICE</t>
+  </si>
+  <si>
+    <t>change</t>
   </si>
 </sst>
 </file>
@@ -182,12 +185,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="105" zoomScaleNormal="105" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -239,6 +242,11 @@
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
